--- a/Projects/L10N/l10n/cn/TextTable_CN.xlsx
+++ b/Projects/L10N/l10n/cn/TextTable_CN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\l10n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\Projects\L10N\l10n\cn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC711269-D773-48FA-B43A-58146015F67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA59E30-4B8B-4240-B6D6-BDDB9A318F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="2520" windowWidth="29040" windowHeight="14865" xr2:uid="{A92FCC87-3CCB-4551-AAAE-7C509C505A0D}"/>
+    <workbookView xWindow="30165" yWindow="1500" windowWidth="25335" windowHeight="12915" xr2:uid="{A92FCC87-3CCB-4551-AAAE-7C509C505A0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>##</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -287,6 +287,10 @@
   </si>
   <si>
     <t>測試5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -675,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350ECAEC-6119-4836-8E37-6CA3CE6798B5}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -692,158 +696,162 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="2" t="s">
         <v>42</v>
       </c>
     </row>
